--- a/backend/permissions.xlsx
+++ b/backend/permissions.xlsx
@@ -1,35 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="17115" windowHeight="12780"/>
+    <workbookView windowWidth="13057" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="42">
   <si>
     <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>路由</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/v1/admin/logout</t>
@@ -123,32 +119,203 @@
   </si>
   <si>
     <t>删除权限</t>
+  </si>
+  <si>
+    <t>/v1/admin/songs</t>
+  </si>
+  <si>
+    <t>歌曲列表</t>
+  </si>
+  <si>
+    <t>/v1/admin/songs/*</t>
+  </si>
+  <si>
+    <t>歌曲详情</t>
+  </si>
+  <si>
+    <t>创建歌曲</t>
+  </si>
+  <si>
+    <t>编辑歌曲</t>
+  </si>
+  <si>
+    <t>删除歌曲</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,8 +328,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -172,23 +525,265 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
@@ -198,15 +793,67 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -286,23 +933,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -338,23 +968,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -496,34 +1109,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.7109375" defaultRowHeight="21.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="1.70796460176991" defaultRowHeight="21.75" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="1.7109375" style="1"/>
+    <col min="1" max="1" width="27.858407079646" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9.14159292035398" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85840707964602" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.4247787610619" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.4247787610619" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="1.70796460176991" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21.75" customHeight="1">
+    <row r="1" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -537,7 +1145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="21.75" customHeight="1">
+    <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -551,7 +1159,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="21.75" customHeight="1">
+    <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -565,7 +1173,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="21.75" customHeight="1">
+    <row r="4" customHeight="1" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -579,7 +1187,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="21.75" customHeight="1">
+    <row r="5" customHeight="1" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -593,7 +1201,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="21.75" customHeight="1">
+    <row r="6" customHeight="1" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -607,7 +1215,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="21.75" customHeight="1">
+    <row r="7" customHeight="1" spans="1:4">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -621,7 +1229,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="21.75" customHeight="1">
+    <row r="8" customHeight="1" spans="1:4">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -635,7 +1243,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="21.75" customHeight="1">
+    <row r="9" customHeight="1" spans="1:4">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -649,7 +1257,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="21.75" customHeight="1">
+    <row r="10" customHeight="1" spans="1:4">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -663,7 +1271,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="21.75" customHeight="1">
+    <row r="11" customHeight="1" spans="1:4">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -677,7 +1285,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="21.75" customHeight="1">
+    <row r="12" customHeight="1" spans="1:4">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
@@ -691,7 +1299,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="21.75" customHeight="1">
+    <row r="13" customHeight="1" spans="1:4">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -705,7 +1313,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="21.75" customHeight="1">
+    <row r="14" customHeight="1" spans="1:4">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -719,7 +1327,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="21.75" customHeight="1">
+    <row r="15" customHeight="1" spans="1:4">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -733,7 +1341,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="21.75" customHeight="1">
+    <row r="16" customHeight="1" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -747,7 +1355,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="21.75" customHeight="1">
+    <row r="17" customHeight="1" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -761,7 +1369,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="21.75" customHeight="1">
+    <row r="18" customHeight="1" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -775,7 +1383,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="21.75" customHeight="1">
+    <row r="19" customHeight="1" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -789,9 +1397,79 @@
         <v>16</v>
       </c>
     </row>
+    <row r="20" customHeight="1" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:4">
+      <c r="A21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:4">
+      <c r="A22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:4">
+      <c r="A23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:4">
+      <c r="A24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/backend/permissions.xlsx
+++ b/backend/permissions.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lidapeng/Desktop/musicplayer.pandaleo.cn/backend/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="13057" windowHeight="12240"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="19720" windowHeight="22000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="70">
   <si>
     <t>名称</t>
   </si>
@@ -140,19 +153,134 @@
   </si>
   <si>
     <t>删除歌曲</t>
+  </si>
+  <si>
+    <t>/v1/admin/songs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/v1/admin/playlists</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/v1/admin/playlists/*</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/v1/admin/playlists</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/v1/admin/playlists/*</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌单列表</t>
+    <rPh sb="0" eb="1">
+      <t>ge'dan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌单列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌单详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建歌单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑歌单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除歌单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/v1/admin/albums</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/v1/admin/albums/*</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/v1/admin/albums/*</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专辑列表</t>
+    <rPh sb="0" eb="1">
+      <t>zhuan'ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专辑列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专辑详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建专辑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑专辑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除专辑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除专辑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/v1/admin/artists</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/v1/admin/artists/*</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌手列表</t>
+    <rPh sb="0" eb="1">
+      <t>ge'shou</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌手详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建歌手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑歌手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除歌手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -164,158 +292,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
+      <sz val="9"/>
+      <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,194 +310,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -538,252 +334,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
@@ -797,57 +351,10 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1109,29 +616,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.70796460176991" defaultRowHeight="21.75" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="1.6640625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="27.858407079646" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9.14159292035398" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85840707964602" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.4247787610619" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.4247787610619" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="1.70796460176991" style="1"/>
+    <col min="1" max="1" width="27.83203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="1.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1145,7 +652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:4">
+    <row r="2" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1159,7 +666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:4">
+    <row r="3" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1173,7 +680,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:4">
+    <row r="4" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1187,7 +694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:4">
+    <row r="5" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1201,7 +708,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:4">
+    <row r="6" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -1215,7 +722,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:4">
+    <row r="7" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1229,7 +736,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:4">
+    <row r="8" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1243,7 +750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:4">
+    <row r="9" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -1257,7 +764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:4">
+    <row r="10" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -1271,7 +778,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:4">
+    <row r="11" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -1285,7 +792,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:4">
+    <row r="12" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
@@ -1299,7 +806,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:4">
+    <row r="13" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -1313,7 +820,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:4">
+    <row r="14" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -1327,7 +834,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:4">
+    <row r="15" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -1341,7 +848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:4">
+    <row r="16" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -1355,7 +862,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:4">
+    <row r="17" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -1369,7 +876,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:4">
+    <row r="18" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -1383,7 +890,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:4">
+    <row r="19" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -1397,9 +904,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:4">
+    <row r="20" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>36</v>
@@ -1411,7 +918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:4">
+    <row r="21" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>37</v>
       </c>
@@ -1425,7 +932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:4">
+    <row r="22" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
@@ -1439,7 +946,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:4">
+    <row r="23" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>37</v>
       </c>
@@ -1453,7 +960,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:4">
+    <row r="24" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>37</v>
       </c>
@@ -1467,9 +974,219 @@
         <v>16</v>
       </c>
     </row>
+    <row r="25" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/backend/permissions.xlsx
+++ b/backend/permissions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="80">
   <si>
     <t>名称</t>
   </si>
@@ -273,6 +273,61 @@
   </si>
   <si>
     <t>删除歌手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/v1/admin/lyrics</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/v1/admin/lyrics/*</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/v1/admin/lyrics</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/v1/admin/lyrics/*</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/v1/admin/lyrics/*</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌词列表</t>
+    <rPh sb="0" eb="1">
+      <t>ge'ci</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌词详情</t>
+    <rPh sb="0" eb="1">
+      <t>ge'ci</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建歌词</t>
+    <rPh sb="2" eb="3">
+      <t>ge'ci</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑歌词</t>
+    <rPh sb="2" eb="3">
+      <t>ge'c</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除歌词</t>
+    <rPh sb="2" eb="3">
+      <t>ge'ci</t>
+    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -622,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="1.6640625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1184,6 +1239,76 @@
         <v>16</v>
       </c>
     </row>
+    <row r="40" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/backend/permissions.xlsx
+++ b/backend/permissions.xlsx
@@ -1,33 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lidapeng/Desktop/musicplayer.pandaleo.cn/backend/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="760" yWindow="460" windowWidth="19720" windowHeight="22000"/>
+    <workbookView windowWidth="13057" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="74">
   <si>
     <t>名称</t>
   </si>
@@ -155,187 +142,113 @@
     <t>删除歌曲</t>
   </si>
   <si>
-    <t>/v1/admin/songs</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>/v1/admin/playlists</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌单列表</t>
   </si>
   <si>
     <t>/v1/admin/playlists/*</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/v1/admin/playlists</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/v1/admin/playlists/*</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>歌单列表</t>
-    <rPh sb="0" eb="1">
-      <t>ge'dan</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>歌单列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>歌单详情</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>创建歌单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>编辑歌单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>删除歌单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/v1/admin/albums</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专辑列表</t>
   </si>
   <si>
     <t>/v1/admin/albums/*</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/v1/admin/albums/*</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>专辑列表</t>
-    <rPh sb="0" eb="1">
-      <t>zhuan'ji</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>专辑列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>专辑详情</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>创建专辑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>编辑专辑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>删除专辑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除专辑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/v1/admin/artists</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌手列表</t>
   </si>
   <si>
     <t>/v1/admin/artists/*</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>歌手列表</t>
-    <rPh sb="0" eb="1">
-      <t>ge'shou</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>歌手详情</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>创建歌手</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>编辑歌手</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>删除歌手</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/v1/admin/lyrics</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌词列表</t>
   </si>
   <si>
     <t>/v1/admin/lyrics/*</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/v1/admin/lyrics</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/v1/admin/lyrics/*</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/v1/admin/lyrics/*</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>歌词列表</t>
-    <rPh sb="0" eb="1">
-      <t>ge'ci</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>歌词详情</t>
-    <rPh sb="0" eb="1">
-      <t>ge'ci</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>创建歌词</t>
-    <rPh sb="2" eb="3">
-      <t>ge'ci</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>编辑歌词</t>
-    <rPh sb="2" eb="3">
-      <t>ge'c</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>删除歌词</t>
-    <rPh sb="2" eb="3">
-      <t>ge'ci</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/songs/*/playlists</t>
+  </si>
+  <si>
+    <t>查询歌单</t>
+  </si>
+  <si>
+    <t>admin/playlists/*/songs</t>
+  </si>
+  <si>
+    <t>查询歌曲</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -347,12 +260,158 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,8 +424,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -389,10 +634,252 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
@@ -406,10 +893,57 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -671,29 +1205,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="1.6640625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="1.66371681415929" defaultRowHeight="21.75" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="27.83203125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="1.6640625" style="1"/>
+    <col min="1" max="1" width="27.8318584070796" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9.16814159292035" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83185840707965" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5044247787611" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5044247787611" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="1.66371681415929" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -707,7 +1241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -721,7 +1255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -735,7 +1269,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" customHeight="1" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -749,7 +1283,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" customHeight="1" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -763,7 +1297,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" customHeight="1" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -777,7 +1311,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" customHeight="1" spans="1:4">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -791,7 +1325,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" customHeight="1" spans="1:4">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -805,7 +1339,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" customHeight="1" spans="1:4">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -819,7 +1353,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" customHeight="1" spans="1:4">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -833,7 +1367,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" customHeight="1" spans="1:4">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -847,7 +1381,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" customHeight="1" spans="1:4">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
@@ -861,7 +1395,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" customHeight="1" spans="1:4">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -875,7 +1409,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" customHeight="1" spans="1:4">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -889,7 +1423,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" customHeight="1" spans="1:4">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -903,7 +1437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" customHeight="1" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -917,7 +1451,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" customHeight="1" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -931,7 +1465,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" customHeight="1" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -945,7 +1479,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" customHeight="1" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -959,9 +1493,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" customHeight="1" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>36</v>
@@ -973,7 +1507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" customHeight="1" spans="1:4">
       <c r="A21" s="2" t="s">
         <v>37</v>
       </c>
@@ -987,7 +1521,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" customHeight="1" spans="1:4">
       <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
@@ -1001,7 +1535,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" customHeight="1" spans="1:4">
       <c r="A23" s="2" t="s">
         <v>37</v>
       </c>
@@ -1015,7 +1549,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" customHeight="1" spans="1:4">
       <c r="A24" s="2" t="s">
         <v>37</v>
       </c>
@@ -1029,152 +1563,152 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" customHeight="1" spans="1:4">
       <c r="A25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C25" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" customHeight="1" spans="1:4">
       <c r="A26" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" customHeight="1" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" customHeight="1" spans="1:4">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" customHeight="1" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" customHeight="1" spans="1:4">
       <c r="A30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:4">
+      <c r="A31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:4">
+      <c r="A32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" customHeight="1" spans="1:4">
       <c r="A33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="C33" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" customHeight="1" spans="1:4">
       <c r="A34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="C34" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" customHeight="1" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>36</v>
@@ -1183,12 +1717,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" customHeight="1" spans="1:4">
       <c r="A36" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>38</v>
@@ -1197,12 +1731,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" customHeight="1" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>39</v>
@@ -1211,12 +1745,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" customHeight="1" spans="1:4">
       <c r="A38" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>40</v>
@@ -1225,12 +1759,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" customHeight="1" spans="1:4">
       <c r="A39" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>41</v>
@@ -1239,79 +1773,107 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" customHeight="1" spans="1:4">
       <c r="A40" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" customHeight="1" spans="1:4">
       <c r="A41" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" customHeight="1" spans="1:4">
       <c r="A42" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" customHeight="1" spans="1:4">
       <c r="A43" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" customHeight="1" spans="1:4">
       <c r="A44" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="45" customHeight="1" spans="1:4">
+      <c r="A45" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:4">
+      <c r="A46" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>